--- a/database/imports/taxonomy_metas.xlsx
+++ b/database/imports/taxonomy_metas.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6E20A7-A490-459D-BA9E-3A000D2A1AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0438C-4239-4E61-97AC-8ED31E227F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taxonomy_translations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>locale</t>
   </si>
@@ -141,6 +154,90 @@
   </si>
   <si>
     <t>zh_Hant</t>
+  </si>
+  <si>
+    <t>廠牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Brand</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powertrain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>車身樣式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>排氣量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>動力系統</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>外觀顏色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>內裝顏色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Body Style</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Engine Capacity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exterior Color</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interior Color</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎類型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horsepower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Generation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>世代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>車款</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1092,10 +1189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1498,6 +1596,286 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
